--- a/src/excel/AntigenSupportingData- YF-508.xlsx
+++ b/src/excel/AntigenSupportingData- YF-508.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\Play CDS XML\Version 4.59 - 508\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\Play CDS XML\Version 4.63 - 508 - DRAFT\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0C5C14-0081-40BB-9E41-79D366563A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BCB49A-BCA6-47D8-8966-03FD89522E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="244">
   <si>
     <t>Resources</t>
   </si>
@@ -684,15 +684,6 @@
     <t>If travel is unavoidable, the decision to vaccinate travelers aged ≥60 years needs to weigh the risks and benefits of the vaccination in the context of their destination-specific risk for exposure to YFV.</t>
   </si>
   <si>
-    <t>Do not vaccinate if the patient is breastfeeding.</t>
-  </si>
-  <si>
-    <t>Vaccination with Stamaril may occur if the patient is able to suspend breastfeeding for 14 days after administration.</t>
-  </si>
-  <si>
-    <t>Breastfeeding (009)</t>
-  </si>
-  <si>
     <t>Contraindication for Breastfeeding added for Stamaril (CVX 183)</t>
   </si>
   <si>
@@ -720,12 +711,6 @@
     <t>Skip Context</t>
   </si>
   <si>
-    <t>≥9 mo to 59 yrs</t>
-  </si>
-  <si>
-    <t>≥6 mo</t>
-  </si>
-  <si>
     <t>Not Preferred</t>
   </si>
   <si>
@@ -799,6 +784,36 @@
   </si>
   <si>
     <t>Publication Date: 11/08/2024</t>
+  </si>
+  <si>
+    <t>Publication Date: 12/13/2024</t>
+  </si>
+  <si>
+    <t>Contraindications -&gt; Antigen Contraindication -&gt; Contraindication (Code)</t>
+  </si>
+  <si>
+    <t>Solid organ transplantation (157)</t>
+  </si>
+  <si>
+    <t>Typo correction</t>
+  </si>
+  <si>
+    <t>Contraindications -&gt; Vaccine contraindication -&gt; Removed discontinued vaccines</t>
+  </si>
+  <si>
+    <t>Removed vaccine-specific contraindications where the vaccine is not an active U.S. product.</t>
+  </si>
+  <si>
+    <t>General contraindication cleanup project to provide a consistent approach across all antigen supporting data. Only active U.S. products are now included in the vaccine contraindications section.</t>
+  </si>
+  <si>
+    <t>Publication Date: 05/23/2025</t>
+  </si>
+  <si>
+    <t>≥9 mos to &lt;59 yrs</t>
+  </si>
+  <si>
+    <t>≥6 mos</t>
   </si>
 </sst>
 </file>
@@ -1613,7 +1628,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2039,6 +2054,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2586,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C18" s="137"/>
       <c r="D18" s="137"/>
@@ -2601,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C19" s="137"/>
       <c r="D19" s="137"/>
@@ -2616,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C20" s="137"/>
       <c r="D20" s="137"/>
@@ -2631,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C21" s="137"/>
       <c r="D21" s="137"/>
@@ -2646,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C22" s="137"/>
       <c r="D22" s="137"/>
@@ -2711,10 +2729,10 @@
         <v>144</v>
       </c>
       <c r="C26" s="66" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="D26" s="66" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="E26" s="66" t="s">
         <v>91</v>
@@ -2738,10 +2756,10 @@
         <v>186</v>
       </c>
       <c r="C27" s="66" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="D27" s="66" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="E27" s="66" t="s">
         <v>189</v>
@@ -2765,10 +2783,10 @@
         <v>188</v>
       </c>
       <c r="C28" s="66" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D28" s="66" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="E28" s="66"/>
       <c r="F28" s="66"/>
@@ -2821,7 +2839,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2838,10 +2856,10 @@
         <v>45</v>
       </c>
       <c r="B1" s="144">
-        <v>4.59</v>
-      </c>
-      <c r="C1" s="146" t="s">
-        <v>238</v>
+        <v>4.62</v>
+      </c>
+      <c r="C1" s="147" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2865,248 +2883,256 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="141" t="s">
+      <c r="A3" s="131" t="s">
         <v>46</v>
       </c>
       <c r="B3" s="45">
         <v>1</v>
       </c>
       <c r="C3" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>239</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>240</v>
+      </c>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="144">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C5" s="147" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="145" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="131" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="45">
+        <v>1</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="E7" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="D3" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="48" t="s">
+      <c r="F7" s="48" t="s">
         <v>237</v>
       </c>
-      <c r="G3" s="23"/>
-    </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="141" t="s">
+      <c r="G7" s="23"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="144">
+        <v>4.59</v>
+      </c>
+      <c r="C9" s="146" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B10" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="145" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="141" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="45">
+        <v>1</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="141" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="45">
         <v>2</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C12" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="D12" s="69" t="s">
+        <v>217</v>
+      </c>
+      <c r="E12" s="69" t="s">
+        <v>218</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="131" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="45">
+        <v>3</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>220</v>
+      </c>
+      <c r="D13" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="69" t="s">
         <v>221</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="F13" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="E4" s="69" t="s">
-        <v>223</v>
-      </c>
-      <c r="F4" s="48" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="131" t="s">
+    </row>
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="45">
-        <v>3</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>225</v>
-      </c>
-      <c r="D5" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="69" t="s">
-        <v>226</v>
-      </c>
-      <c r="F5" s="48" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="58">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="B16" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="41" t="s">
+      <c r="F16" s="41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="141" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="41" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="141" t="s">
+      <c r="B17" s="45">
+        <v>1</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>202</v>
+      </c>
+      <c r="F17" s="48" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="141" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="45">
-        <v>1</v>
-      </c>
-      <c r="C9" s="47" t="s">
+      <c r="B18" s="45">
+        <v>2</v>
+      </c>
+      <c r="C18" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D18" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E18" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="F18" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="F9" s="48" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="141" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="45">
-        <v>2</v>
-      </c>
-      <c r="C10" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="F10" s="48" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="131" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="45">
-        <v>3</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>215</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="F11" s="48" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="58">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="41" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="131" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="45">
-        <v>1</v>
-      </c>
-      <c r="C15" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="132" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="132" t="s">
-        <v>203</v>
-      </c>
-      <c r="F15" s="48" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="58">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="41" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="131" t="s">
         <v>46</v>
       </c>
       <c r="B19" s="45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>197</v>
-      </c>
-      <c r="D19" s="132" t="s">
-        <v>112</v>
-      </c>
-      <c r="E19" s="132" t="s">
-        <v>10</v>
+        <v>210</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="48" t="s">
+        <v>108</v>
       </c>
       <c r="F19" s="48" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -3114,7 +3140,7 @@
         <v>45</v>
       </c>
       <c r="B21" s="58">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -3138,176 +3164,272 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="141" t="s">
+      <c r="A23" s="131" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="45">
         <v>1</v>
       </c>
       <c r="C23" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="132" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="132" t="s">
+        <v>200</v>
+      </c>
+      <c r="F23" s="48" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="58">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="131" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="45">
+        <v>1</v>
+      </c>
+      <c r="C27" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="D27" s="132" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="132" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="48" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="58">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="141" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="45">
+        <v>1</v>
+      </c>
+      <c r="C31" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="D23" s="132" t="s">
+      <c r="D31" s="132" t="s">
         <v>180</v>
       </c>
-      <c r="E23" s="132" t="s">
+      <c r="E31" s="132" t="s">
         <v>181</v>
       </c>
-      <c r="F23" s="48" t="s">
+      <c r="F31" s="48" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="141" t="s">
+    <row r="32" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="141" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="45">
+      <c r="B32" s="45">
         <v>2</v>
       </c>
-      <c r="C24" s="47" t="s">
+      <c r="C32" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="D24" s="132" t="s">
+      <c r="D32" s="132" t="s">
         <v>114</v>
       </c>
-      <c r="E24" s="132" t="s">
+      <c r="E32" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="48" t="s">
+      <c r="F32" s="48" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="141" t="s">
+    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="141" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="45">
+      <c r="B33" s="45">
         <v>3</v>
       </c>
-      <c r="C25" s="47" t="s">
+      <c r="C33" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="D25" s="132" t="s">
+      <c r="D33" s="132" t="s">
         <v>114</v>
       </c>
-      <c r="E25" s="132" t="s">
+      <c r="E33" s="132" t="s">
         <v>193</v>
       </c>
-      <c r="F25" s="48" t="s">
+      <c r="F33" s="48" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="43" t="s">
+    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="58">
+      <c r="B35" s="58">
         <v>3.2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="44" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="42" t="s">
+      <c r="B36" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C36" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="D36" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="41" t="s">
+      <c r="E36" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="41" t="s">
+      <c r="F36" s="41" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="131" t="s">
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="45">
+      <c r="B37" s="45">
         <v>1</v>
       </c>
-      <c r="C29" s="47" t="s">
+      <c r="C37" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="D29" s="132" t="s">
+      <c r="D37" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="132" t="s">
+      <c r="E37" s="132" t="s">
         <v>158</v>
       </c>
-      <c r="F29" s="48" t="s">
+      <c r="F37" s="48" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="43" t="s">
+    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="58">
+      <c r="B39" s="58">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="44" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B40" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C40" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="41" t="s">
+      <c r="D40" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="41" t="s">
+      <c r="E40" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="41" t="s">
+      <c r="F40" s="41" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="59"/>
-      <c r="B33" s="45">
+    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="59"/>
+      <c r="B41" s="45">
         <v>1</v>
       </c>
-      <c r="C33" s="47" t="s">
+      <c r="C41" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="46" t="s">
+      <c r="D41" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="E33" s="48" t="s">
+      <c r="E41" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="F33" s="48" t="s">
+      <c r="F41" s="48" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="119" t="s">
+    <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="88">
+      <c r="B42" s="88">
         <v>2</v>
       </c>
-      <c r="C34" s="47" t="s">
+      <c r="C42" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="130" t="s">
+      <c r="D42" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="E34" s="130" t="s">
+      <c r="E42" s="130" t="s">
         <v>152</v>
       </c>
-      <c r="F34" s="48" t="s">
+      <c r="F42" s="48" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3356,7 +3478,7 @@
         <v>165</v>
       </c>
       <c r="D2" s="70" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E2" s="136" t="s">
         <v>10</v>
@@ -3373,7 +3495,7 @@
         <v>195</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E3" s="136" t="s">
         <v>196</v>
@@ -3423,13 +3545,13 @@
         <v>61</v>
       </c>
       <c r="B4" s="63" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D4" s="63" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -3752,13 +3874,13 @@
         <v>150</v>
       </c>
       <c r="B15" s="67" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C15" s="68" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D15" s="85" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E15" s="85" t="s">
         <v>10</v>
@@ -3836,26 +3958,26 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="45" t="s">
-        <v>202</v>
-      </c>
-      <c r="C20" s="45" t="s">
-        <v>200</v>
-      </c>
-      <c r="D20" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="E20" s="45" t="s">
-        <v>186</v>
+      <c r="B20" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="72" t="s">
+        <v>10</v>
       </c>
       <c r="F20" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="G20" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="72" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3869,7 +3991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:T45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4230,10 +4352,10 @@
         <v>24</v>
       </c>
       <c r="G25" s="143" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H25" s="143" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I25" s="97"/>
     </row>
@@ -4296,10 +4418,10 @@
         <v>135</v>
       </c>
       <c r="K27" s="143" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L27" s="143" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -4354,10 +4476,10 @@
         <v>27</v>
       </c>
       <c r="E29" s="143" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F29" s="143" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G29" s="23"/>
       <c r="H29" s="37"/>
@@ -4552,7 +4674,7 @@
         <v>125</v>
       </c>
       <c r="B39" s="143" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C39" s="93" t="s">
         <v>126</v>
@@ -4564,10 +4686,10 @@
         <v>128</v>
       </c>
       <c r="F39" s="143" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G39" s="143" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H39" s="93" t="s">
         <v>129</v>
